--- a/3조_WBS_슈츠.xlsx
+++ b/3조_WBS_슈츠.xlsx
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
-  <si>
-    <t>[K-Digital] 프로젝트형 AI 서비스 개발 (A)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>WBS(Work Breakdown Structure)</t>
   </si>
@@ -128,9 +125,15 @@
     <t>주제 관련 도메인 리서치</t>
   </si>
   <si>
+    <t>아파트 실거래가 데이터 수집 및 탐색적 분석</t>
+  </si>
+  <si>
     <t>김보아, 신다롬</t>
   </si>
   <si>
+    <t>특성 변수 데이터 수집 및 탐색적 분석</t>
+  </si>
+  <si>
     <t>이민성, 이우재, 채길호</t>
   </si>
   <si>
@@ -140,13 +143,13 @@
     <t>수집 데이셋 구성 및 전처리</t>
   </si>
   <si>
-    <t>이민성, 김보아</t>
+    <t>김보아, 채길호, 이우재</t>
   </si>
   <si>
     <t>분석자료 시각화</t>
   </si>
   <si>
-    <t>신다롬, 이우재, 채길호</t>
+    <t>이민성, 신다롬</t>
   </si>
   <si>
     <t>데이터 모델링</t>
@@ -175,7 +178,7 @@
     <numFmt numFmtId="164" formatCode="m&quot;/&quot;d"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -185,10 +188,16 @@
       <b/>
       <sz val="9.0"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <b/>
+      <sz val="9.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -244,6 +253,16 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <sz val="8.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -278,6 +297,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor rgb="FFED7D31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
       </patternFill>
@@ -286,12 +311,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE5CD"/>
         <bgColor rgb="FFFCE5CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
-        <bgColor rgb="FFED7D31"/>
       </patternFill>
     </fill>
   </fills>
@@ -371,101 +390,107 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="6" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="6" fillId="0" fontId="10" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="6" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="2" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="6" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="6" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="6" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="14" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -694,31 +719,31 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="1">
+        <v>1.0</v>
       </c>
       <c r="F1" s="2"/>
       <c r="R1" s="3"/>
     </row>
     <row r="2" ht="38.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" ht="26.25" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -739,55 +764,55 @@
     </row>
     <row r="4" ht="13.5" customHeight="1">
       <c r="A4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="I4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="J4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="K4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="L4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="M4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="N4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="O4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="P4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="Q4" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>22</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -841,10 +866,10 @@
     </row>
     <row r="6" ht="17.25" customHeight="1">
       <c r="A6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
@@ -865,13 +890,13 @@
     <row r="7" ht="17.25" customHeight="1">
       <c r="A7" s="22"/>
       <c r="B7" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="17">
         <v>1.0</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="19">
         <v>44417.2083333333</v>
@@ -880,50 +905,50 @@
         <v>44053.0</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
       <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
     </row>
     <row r="8" ht="17.25" customHeight="1">
       <c r="A8" s="22"/>
       <c r="B8" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
       <c r="G8" s="20"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
     </row>
     <row r="9" ht="17.25" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="17">
-        <v>0.3</v>
+      <c r="B9" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="28">
+        <v>1.0</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="19">
         <v>44418.2083333333</v>
@@ -932,29 +957,29 @@
         <v>44419.2083333333</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
+        <v>25</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="29"/>
       <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
     </row>
     <row r="10" ht="17.25" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="17">
-        <v>0.0</v>
+      <c r="B10" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="28">
+        <v>1.0</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="19">
         <v>44419.2083333333</v>
@@ -965,27 +990,27 @@
       <c r="G10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
       <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
     </row>
     <row r="11" ht="17.25" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="17">
-        <v>0.0</v>
+      <c r="B11" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="28">
+        <v>1.0</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="19">
         <v>44419.2083333333</v>
@@ -994,50 +1019,50 @@
         <v>44420.2083333333</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
+        <v>31</v>
+      </c>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
       <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
     </row>
     <row r="12" ht="17.25" customHeight="1">
       <c r="A12" s="22"/>
       <c r="B12" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="18"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
     </row>
     <row r="13" ht="17.25" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="17">
-        <v>0.0</v>
+      <c r="B13" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="28">
+        <v>1.0</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="19">
         <v>44421.2083333333</v>
@@ -1045,30 +1070,30 @@
       <c r="F13" s="19">
         <v>44424.2083333333</v>
       </c>
-      <c r="G13" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
+      <c r="G13" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
       <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
     </row>
     <row r="14" ht="17.25" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="17">
-        <v>0.0</v>
+      <c r="B14" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="28">
+        <v>1.0</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="19">
         <v>44424.2083333333</v>
@@ -1076,51 +1101,51 @@
       <c r="F14" s="19">
         <v>44425.2083333333</v>
       </c>
-      <c r="G14" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
+      <c r="G14" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
       <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
     </row>
     <row r="15" ht="17.25" customHeight="1">
       <c r="A15" s="22"/>
       <c r="B15" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="18"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="20"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
     </row>
     <row r="16" ht="17.25" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="17">
-        <v>0.0</v>
+      <c r="B16" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="28">
+        <v>1.0</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="19">
         <v>44424.2083333333</v>
@@ -1129,50 +1154,50 @@
         <v>44425.2083333333</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
+        <v>25</v>
+      </c>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="25"/>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
+      <c r="Q16" s="26"/>
     </row>
     <row r="17" ht="17.25" customHeight="1">
       <c r="A17" s="22"/>
       <c r="B17" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="18"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
     </row>
     <row r="18" ht="17.25" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="17">
-        <v>0.0</v>
+      <c r="B18" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="28">
+        <v>1.0</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="19">
         <v>44426.2083333333</v>
@@ -1181,29 +1206,29 @@
         <v>44427.2083333333</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="25"/>
+        <v>41</v>
+      </c>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="26"/>
     </row>
     <row r="19" ht="17.25" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="17">
-        <v>0.0</v>
+      <c r="B19" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="28">
+        <v>1.0</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="19">
         <v>44427.208333333</v>
@@ -1212,62 +1237,62 @@
         <v>44428.208333333</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
+        <v>25</v>
+      </c>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
     </row>
     <row r="20" ht="17.25" customHeight="1">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
     </row>
     <row r="21" ht="17.25" customHeight="1">
-      <c r="A21" s="30"/>
+      <c r="A21" s="32"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" ht="17.25" customHeight="1">
-      <c r="A22" s="30"/>
+      <c r="A22" s="32"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" ht="17.25" customHeight="1">
-      <c r="A23" s="30"/>
+      <c r="A23" s="32"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" ht="13.5" customHeight="1">
-      <c r="A24" s="30"/>
+      <c r="A24" s="32"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" ht="13.5" customHeight="1">
-      <c r="A25" s="30"/>
+      <c r="A25" s="32"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" ht="13.5" customHeight="1">
-      <c r="A26" s="30"/>
+      <c r="A26" s="32"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
